--- a/experiments/dbscan-ajk/instructor-xl/0.08/prediction.xlsx
+++ b/experiments/dbscan-ajk/instructor-xl/0.08/prediction.xlsx
@@ -468,337 +468,337 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -818,27 +818,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,3427 +848,3427 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>90</v>
+        <v>112</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>92</v>
+        <v>117</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>95</v>
+        <v>123</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>97</v>
+        <v>133</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>97</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>99</v>
+        <v>121</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>101</v>
+        <v>124</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>102</v>
+        <v>125</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>108</v>
+        <v>132</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>111</v>
+        <v>136</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>112</v>
+        <v>137</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>114</v>
+        <v>139</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>118</v>
+        <v>144</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>118</v>
+        <v>145</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>118</v>
+        <v>146</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>119</v>
+        <v>148</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>120</v>
+        <v>149</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>122</v>
+        <v>150</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>124</v>
+        <v>152</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>125</v>
+        <v>156</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>127</v>
+        <v>156</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>127</v>
+        <v>160</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>128</v>
+        <v>156</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>130</v>
+        <v>154</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>132</v>
+        <v>157</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>133</v>
+        <v>159</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>134</v>
+        <v>156</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>135</v>
+        <v>156</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>136</v>
+        <v>163</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>143</v>
+        <v>164</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>144</v>
+        <v>90</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>145</v>
+        <v>90</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>148</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>149</v>
+        <v>90</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>153</v>
+        <v>168</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>167</v>
+        <v>178</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>171</v>
+        <v>63</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>171</v>
+        <v>63</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>171</v>
+        <v>63</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>172</v>
+        <v>73</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>178</v>
+        <v>119</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>178</v>
+        <v>118</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>178</v>
+        <v>206</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>178</v>
+        <v>203</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>178</v>
+        <v>204</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>179</v>
+        <v>205</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>181</v>
+        <v>153</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>182</v>
+        <v>135</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>183</v>
+        <v>63</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>184</v>
+        <v>208</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>186</v>
+        <v>209</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>187</v>
+        <v>210</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>188</v>
+        <v>223</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>189</v>
+        <v>222</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>189</v>
+        <v>224</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>190</v>
+        <v>225</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>191</v>
+        <v>226</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>192</v>
+        <v>226</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>200</v>
+        <v>227</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>201</v>
+        <v>228</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>202</v>
+        <v>230</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>202</v>
+        <v>229</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>203</v>
+        <v>230</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>203</v>
+        <v>230</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>204</v>
+        <v>230</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>205</v>
+        <v>230</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>208</v>
+        <v>231</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>209</v>
+        <v>231</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>210</v>
+        <v>232</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>216</v>
+        <v>239</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>217</v>
+        <v>240</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>217</v>
+        <v>240</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>218</v>
+        <v>241</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>225</v>
+        <v>244</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>226</v>
+        <v>118</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>226</v>
+        <v>247</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>227</v>
+        <v>249</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>230</v>
+        <v>252</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>230</v>
+        <v>246</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>230</v>
+        <v>248</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>230</v>
+        <v>248</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -4288,1871 +4288,1871 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>230</v>
+        <v>254</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>230</v>
+        <v>63</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>231</v>
+        <v>63</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>231</v>
+        <v>255</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>231</v>
+        <v>256</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>231</v>
+        <v>164</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>231</v>
+        <v>90</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>231</v>
+        <v>90</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>231</v>
+        <v>14</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>232</v>
+        <v>90</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>233</v>
+        <v>258</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>234</v>
+        <v>258</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>235</v>
+        <v>259</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>238</v>
+        <v>261</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>238</v>
+        <v>263</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>239</v>
+        <v>264</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>240</v>
+        <v>262</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>240</v>
+        <v>263</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>241</v>
+        <v>263</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>242</v>
+        <v>264</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>243</v>
+        <v>264</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>244</v>
+        <v>265</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>244</v>
+        <v>266</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>245</v>
+        <v>267</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>246</v>
+        <v>275</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>247</v>
+        <v>269</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>248</v>
+        <v>270</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>248</v>
+        <v>271</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>248</v>
+        <v>272</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>248</v>
+        <v>273</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>248</v>
+        <v>274</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>250</v>
+        <v>276</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>250</v>
+        <v>271</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>252</v>
+        <v>278</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>254</v>
+        <v>280</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>256</v>
+        <v>281</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>257</v>
+        <v>282</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>258</v>
+        <v>284</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>258</v>
+        <v>285</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>259</v>
+        <v>286</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>260</v>
+        <v>287</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>263</v>
+        <v>288</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>263</v>
+        <v>291</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>264</v>
+        <v>290</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>264</v>
+        <v>293</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>265</v>
+        <v>294</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>266</v>
+        <v>295</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>267</v>
+        <v>198</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>268</v>
+        <v>198</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>268</v>
+        <v>198</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>269</v>
+        <v>296</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>270</v>
+        <v>164</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>271</v>
+        <v>164</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>271</v>
+        <v>164</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>272</v>
+        <v>164</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>273</v>
+        <v>297</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>274</v>
+        <v>298</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>275</v>
+        <v>299</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>276</v>
+        <v>300</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>277</v>
+        <v>301</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>278</v>
+        <v>302</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>279</v>
+        <v>303</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>280</v>
+        <v>304</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>281</v>
+        <v>318</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>281</v>
+        <v>319</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>282</v>
+        <v>320</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>283</v>
+        <v>321</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>284</v>
+        <v>322</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>285</v>
+        <v>322</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>285</v>
+        <v>323</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>286</v>
+        <v>324</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>287</v>
+        <v>325</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>287</v>
+        <v>325</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>288</v>
+        <v>326</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>289</v>
+        <v>305</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>290</v>
+        <v>306</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>291</v>
+        <v>307</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>292</v>
+        <v>310</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>293</v>
+        <v>313</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>294</v>
+        <v>314</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>296</v>
+        <v>90</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>298</v>
+        <v>28</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>303</v>
+        <v>231</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>304</v>
+        <v>231</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>305</v>
+        <v>231</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>308</v>
+        <v>327</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>309</v>
+        <v>244</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>310</v>
+        <v>202</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>310</v>
+        <v>329</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>311</v>
+        <v>330</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>312</v>
+        <v>328</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>314</v>
+        <v>332</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>315</v>
+        <v>263</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>316</v>
+        <v>231</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>317</v>
+        <v>333</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>318</v>
+        <v>334</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>320</v>
+        <v>336</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>321</v>
+        <v>337</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>322</v>
+        <v>27</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>322</v>
+        <v>27</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>323</v>
+        <v>27</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>324</v>
+        <v>27</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>325</v>
+        <v>27</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>329</v>
+        <v>230</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>334</v>
+        <v>138</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>335</v>
+        <v>139</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>346</v>
+        <v>33</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>355</v>
+        <v>364</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>356</v>
+        <v>183</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>363</v>
+        <v>97</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>364</v>
+        <v>151</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>365</v>
+        <v>152</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>366</v>
+        <v>90</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>367</v>
+        <v>263</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>372</v>
+        <v>73</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>373</v>
+        <v>226</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>374</v>
+        <v>226</v>
       </c>
     </row>
     <row r="573">
